--- a/SF1590_B ØiR - Afsend debitorregistrering til ØiR (Debitor)/Documentation/Copy of Testdata Opus Debitor v2.0 KOMBIT.xlsx
+++ b/SF1590_B ØiR - Afsend debitorregistrering til ØiR (Debitor)/Documentation/Copy of Testdata Opus Debitor v2.0 KOMBIT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7608" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="7608" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vejledning" sheetId="21" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="BP" sheetId="22" r:id="rId6"/>
     <sheet name="Ark2" sheetId="23" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="222">
   <si>
     <t>1</t>
   </si>
@@ -973,6 +973,73 @@
   </si>
   <si>
     <t>293a4b48-4c03-48e2-a334-529000c6999c</t>
+  </si>
+  <si>
+    <t>&amp;DagsDato</t>
+  </si>
+  <si>
+    <t>&lt;ikke angivet&gt;</t>
+  </si>
+  <si>
+    <t>&lt;se nedenfor * 1&gt;</t>
+  </si>
+  <si>
+    <t>*1</t>
+  </si>
+  <si>
+    <t>StructuredDK</t>
+  </si>
+  <si>
+    <t>AdresseTypeKode</t>
+  </si>
+  <si>
+    <t>AdresseVejnavn</t>
+  </si>
+  <si>
+    <t>Gavnøvej</t>
+  </si>
+  <si>
+    <t>AdresseHusnummer</t>
+  </si>
+  <si>
+    <t>AdressePostnummer</t>
+  </si>
+  <si>
+    <t>AdresseBynavn</t>
+  </si>
+  <si>
+    <t>Nykøbing Sjælland</t>
+  </si>
+  <si>
+    <t>Irmelin Castenskjöld</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Tekstlinie1
+Tekstlinie 2  - æøåÆØÅ@$€%!½§\&lt;&gt;|&amp;#=+-äöüÄÖÜéèÉÈôÔ*</t>
+  </si>
+  <si>
+    <t>1-12-2016</t>
+  </si>
+  <si>
+    <t>31-12-2016</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>746,45</t>
+  </si>
+  <si>
+    <t>06-12-2016</t>
+  </si>
+  <si>
+    <t>ESH/AB</t>
+  </si>
+  <si>
+    <t>Eskild Hansen</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1118,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1100,8 +1167,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1341,13 +1414,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1562,6 +1644,26 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2167,10 +2269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B86:B93"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3270,6 +3372,11 @@
         <v>104</v>
       </c>
     </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="95" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3278,116 +3385,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="E44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.7265625" style="92" customWidth="1"/>
-    <col min="2" max="3" width="38.26953125" customWidth="1"/>
-    <col min="4" max="5" width="38.26953125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="38.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="42.7265625" style="92" customWidth="1"/>
+    <col min="3" max="4" width="38.26953125" customWidth="1"/>
+    <col min="5" max="6" width="38.26953125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="50.54296875" customWidth="1"/>
+    <col min="8" max="8" width="38.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50.4" x14ac:dyDescent="0.2">
-      <c r="A1" s="89"/>
-      <c r="B1" s="54" t="s">
+    <row r="1" spans="2:8" ht="50.4" x14ac:dyDescent="0.2">
+      <c r="B1" s="89"/>
+      <c r="C1" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="D1" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="F1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="G1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="H1" s="55" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="C2" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="D2" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="F2" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="G2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="H2" s="57" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="C3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="D3" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="E3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="F3" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="G3" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="H3" s="59" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="C4" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D4" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="E4" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="F4" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="G4" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="H4" s="59" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="88" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>197</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>197</v>
@@ -3404,197 +3510,197 @@
       <c r="G5" s="75" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+      <c r="H5" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="C6" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G7" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+      <c r="C7" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="D8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="E8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="F8" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="G8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="H8" s="59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="C9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="D9" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="E9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="F9" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="G9" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="H9" s="59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="C10" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="D10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="E10" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="F10" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="G10" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="H10" s="59" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="C11" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="C12" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="D12" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="D12" s="58" t="s">
+      <c r="E12" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="F12" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="G12" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="H12" s="59" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="C13" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="D13" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="E13" s="83" t="s">
         <v>199</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="F13" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="G13" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="H13" s="77" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
+    <row r="14" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="88" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="75" t="s">
-        <v>197</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>197</v>
@@ -3611,703 +3717,703 @@
       <c r="G14" s="75" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="H14" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="C15" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="F15" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="G15" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="H15" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="C16" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="D16" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="E16" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="F16" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="G16" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="H16" s="59" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="91" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="88" t="s">
+      <c r="C17" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="C18" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="D18" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="E18" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="F18" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="G18" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="H18" s="59" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="91" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="91" t="s">
+      <c r="C19" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="91" t="s">
+      <c r="C20" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="C21" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="D21" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="E21" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="F21" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="G21" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="H21" s="59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="91" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="C22" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="D22" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="E22" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="F22" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="G22" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="H22" s="59" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="91" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
+      <c r="C23" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="91" t="s">
+      <c r="C24" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="91" t="s">
+      <c r="C25" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="94" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="91" t="s">
+      <c r="C26" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G27" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="91" t="s">
+      <c r="C27" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="91" t="s">
+      <c r="C28" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G29" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="91" t="s">
+      <c r="C29" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="91" t="s">
+      <c r="C30" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="91" t="s">
+      <c r="C31" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="91" t="s">
+      <c r="C32" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="91" t="s">
+      <c r="C33" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="91" t="s">
+      <c r="C34" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G35" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="91" t="s">
+      <c r="C35" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="91" t="s">
+      <c r="C36" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="91" t="s">
+      <c r="C37" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="91" t="s">
+      <c r="C38" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="91" t="s">
+      <c r="C39" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F40" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="91" t="s">
+      <c r="C40" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="91" t="s">
+      <c r="C41" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H41" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C42" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="91" t="s">
+      <c r="C42" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D43" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="91" t="s">
+      <c r="C43" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="H43" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G44" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="88" t="s">
+      <c r="C44" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B45" s="88" t="s">
         <v>38</v>
-      </c>
-      <c r="B45" s="75" t="s">
-        <v>197</v>
       </c>
       <c r="C45" s="75" t="s">
         <v>197</v>
@@ -4324,427 +4430,427 @@
       <c r="G45" s="75" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="91" t="s">
+      <c r="H45" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E46" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="91" t="s">
+      <c r="C46" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H46" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B47" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="91" t="s">
+      <c r="C47" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="C48" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="D48" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="E48" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="F48" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="G48" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="H48" s="59" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="91" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F49" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="91" t="s">
+      <c r="C49" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F49" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="91" t="s">
+      <c r="C50" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F51" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="91" t="s">
+      <c r="C51" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G51" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="B52" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="91" t="s">
+      <c r="C52" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="91" t="s">
+      <c r="C53" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="91" t="s">
+      <c r="C54" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F55" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G55" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="91" t="s">
+      <c r="C55" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G55" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E56" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F56" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="91" t="s">
+      <c r="C56" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F57" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G57" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="91" t="s">
+      <c r="C57" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F57" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="91" t="s">
+      <c r="C58" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H58" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B59" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D59" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E59" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G59" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="91" t="s">
+      <c r="C59" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D60" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F60" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G60" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="91" t="s">
+      <c r="C60" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H60" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E61" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F61" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G61" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="91" t="s">
+      <c r="C61" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H61" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G62" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="88" t="s">
+      <c r="C62" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F62" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="C63" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="D63" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="E63" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="E63" s="59" t="s">
+      <c r="F63" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="G63" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="H63" s="59" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="88" t="s">
+    <row r="64" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B64" s="88" t="s">
         <v>57</v>
-      </c>
-      <c r="B64" s="75" t="s">
-        <v>197</v>
       </c>
       <c r="C64" s="75" t="s">
         <v>197</v>
@@ -4761,741 +4867,799 @@
       <c r="G64" s="75" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="91" t="s">
+      <c r="H64" s="75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E65" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F65" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G65" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="91" t="s">
+      <c r="C65" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D65" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G65" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F66" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G66" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="91" t="s">
+      <c r="C66" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G66" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H66" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F67" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G67" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="91" t="s">
+      <c r="C67" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B68" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="91" t="s">
+      <c r="C68" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H68" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="58" t="s">
+      <c r="C69" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="D69" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D69" s="58">
+      <c r="E69" s="58">
         <v>100</v>
       </c>
-      <c r="E69" s="59">
+      <c r="F69" s="59">
         <v>100</v>
       </c>
-      <c r="F69" s="58" t="s">
+      <c r="G69" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="G69" s="59" t="s">
+      <c r="H69" s="59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="91" t="s">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E70" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F70" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G70" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="91" t="s">
+      <c r="C70" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F70" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G70" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B71" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F71" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G71" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="91" t="s">
+      <c r="C71" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G71" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="B72" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="88" t="s">
+      <c r="C72" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D72" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G72" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B73" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="C73" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="D73" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="E73" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="F73" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F73" s="58" t="s">
+      <c r="G73" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="G73" s="59" t="s">
+      <c r="H73" s="59" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="91" t="s">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G74" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="91" t="s">
+      <c r="C74" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F74" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G74" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="B75" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D75" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G75" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="91" t="s">
+      <c r="C75" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H75" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C76" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G76" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="91" t="s">
+      <c r="C76" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G76" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F77" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="91" t="s">
+      <c r="C77" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F77" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B78" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F78" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G78" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="91" t="s">
+      <c r="C78" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E78" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H78" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C79" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D79" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F79" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G79" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="91" t="s">
+      <c r="C79" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F79" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G79" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H79" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B80" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C80" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D80" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E80" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F80" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="91" t="s">
+      <c r="C80" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="H80" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D81" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E81" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F81" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G81" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="91" t="s">
+      <c r="C81" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E81" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="H81" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B82" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E82" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F82" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="91" t="s">
+      <c r="C82" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B83" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C83" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F83" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="91" t="s">
+      <c r="C83" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G83" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B84" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E84" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F84" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G84" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="91" t="s">
+      <c r="C84" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G84" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H84" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C85" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E85" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F85" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="91" t="s">
+      <c r="C85" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G85" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D86" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E86" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F86" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G86" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="91" t="s">
+      <c r="C86" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F86" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G86" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="H86" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="B87" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B87" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E87" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F87" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G87" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="91" t="s">
+      <c r="C87" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F87" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G87" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B88" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E88" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F88" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G88" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="91" t="s">
+      <c r="C88" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E88" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G88" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H88" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B89" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C89" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D89" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E89" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F89" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G89" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="91" t="s">
+      <c r="C89" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F89" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H89" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C90" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E90" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F90" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G90" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="91" t="s">
+      <c r="C90" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D90" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E90" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H90" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B91" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D91" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E91" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F91" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G91" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="91" t="s">
+      <c r="C91" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E91" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F91" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G91" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H91" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="B92" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E92" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G92" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="91" t="s">
+      <c r="C92" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D92" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H92" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B93" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="C93" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="D93" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="E93" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F93" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="G93" s="59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="91" t="s">
+      <c r="C93" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E93" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G93" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="H93" s="59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E94" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F94" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G94" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="91" t="s">
+      <c r="C94" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E95" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" s="59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="91" t="s">
+      <c r="C95" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="D95" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H95" s="59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B96" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="E96" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="F96" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="G96" s="61" t="s">
-        <v>104</v>
+      <c r="C96" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F96" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="G97" s="100" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" s="101" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="G99" s="100">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="G100" s="100">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="G101" s="100" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -10794,14 +10958,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F44DDD4D-E43A-48D0-ADB3-8219FF5B0680}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
